--- a/test/test_cases.xlsx
+++ b/test/test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E_game\minecraft\客户端\多版本隔离\.minecraft\versions\1.20.3\saves\GlobalShop_v3\datapacks\GlobalShop_v3\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC60832-BB01-4C38-8460-A97C434034B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D32C48-5C74-4B35-8E2B-06A7EBFC4BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="261">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,10 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>执行 /trigger glbs_inputter_1 set 1 来上架物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>失败，提示主手为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,23 +207,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>执行 /trigger glbs_inputter_1 set 1919810 来上架物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>失败，提示输入太大</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>失败，提示输入正数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行 /trigger glbs_inputter_1 set -1 来上架物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行 /trigger glbs_inputter_1 set 0 来上架物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -269,14 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金钱达到上限（1073741823）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钱未达上限（1073741823）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使用 /scoreboard players reset @s glbs_income 重置自己的收入；
 点击领取收入选项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,30 +282,6 @@
   <si>
     <t>准心对准查看物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售货架+退回物品的数量未达上限
-进入玩家商店，不点击上架物品选项</t>
-  </si>
-  <si>
-    <t>售货架+退回物品的数量未达上限
-主手为空
-进入玩家商店，点击上架物品选项</t>
-  </si>
-  <si>
-    <t>售货架+退回物品的数量未达上限
-主手拿货币
-进入玩家商店，点击上架物品选项</t>
-  </si>
-  <si>
-    <t>售货架+退回物品的数量未达上限
-主手拿物品
-进入玩家商店，点击上架物品选项</t>
-  </si>
-  <si>
-    <t>售货架+退回物品的数量达到上限
-主手拿物品
-进入玩家商店，点击上架物品选项</t>
   </si>
   <si>
     <t>持续打开商店达 10 分钟（可用 /scoreboard players operation @s glbs_use_time = MAX_EACH_USE_TIME glbs_common 设置使用时间为 10 分钟）</t>
@@ -645,17 +597,6 @@
 2. 失败，提示正在冷却（管理员不受冷却时间限制）
 3. 成功，物品清除；
 之后在售货架可以看到这两个物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 执行 /trigger glbs_inputter_1 set 1 来上架物品；
-2. 继续拿一个物品，10 秒内重复步骤 1
-3. 继续拿一个物品，10 秒后重复步骤 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 执行 /trigger glbs_inputter_1 set 1 来上架物品
-2. 取回一个自己正在出售的物品，或者取回一个退回的物品，然后重复步骤 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1044,24 +985,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. /trigger glbs_inputter_1 set 0
-2. /trigger glbs_inputter_1 set 114514
-3. /trigger glbs_inputter_1 set -114514
-4. /trigger glbs_inputter_1 set 99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 无反应，也不可再触发（重新点击对应选项可再次触发）
-2. 成功，提示达到正边界（50），物品信息框实时变化
-3. 成功，提示达到负边界（50），物品信息框实时变化
-4. 成功，但没有提示到达边界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请分别对调整物品信息框上下位置、左右位置、前后位置和大小进行本项测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>保持物品信息框的上下位置、左右位置、前后位置和大小均为默认状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1202,25 +1125,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 左键物品A
-2. 管理员移除物品A
-3. 左键物品A
-4. 左键物品B
-5. 管理员移除物品B
-6. 转动视角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 有提示
 2. -
 3. 提示物品不存在，菜单刷新
 4. 有提示
 5. -
 6. 菜单刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据同步-出售商店/从出售商店中去除物品/回收商店/从回收商店中去除物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1354,12 +1264,193 @@
 2. 极限情况下，8 位玩家 1min 最多上架 48 个物品（最多只能 8 个玩家同时使用商店，且上架冷却为 10s），而一次退回物品的操作最多是 108 个，超过 48 所以无需担心短时间内有太多物品过期的情况（仅有管理员能创造这种情况，因为管理员上架物品不受 10s 冷却时间的限制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>金钱超过上限（&gt;1073741823）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱未达上限（&lt;=1073741823）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入玩家商店，点击上架物品选项，然后执行 /trigger glbs_inputter_1 set 1 来上架物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入玩家商店，点击上架物品选项，然后执行 /trigger glbs_inputter_1 set 1919810 来上架物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入玩家商店，点击上架物品选项，然后执行 /trigger glbs_inputter_1 set -1 来上架物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入玩家商店，点击上架物品选项，然后执行 /trigger glbs_inputter_1 set 0 来上架物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入玩家商店，点击上架物品选项：
+1. 执行 /trigger glbs_inputter_1 set 1 来上架物品；
+2. 继续拿一个物品，10 秒内重复步骤 1
+3. 继续拿一个物品，10 秒后重复步骤 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售货架+退回物品的数量未达上限
+主手拿物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售货架+退回物品的数量未达上限
+主手为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售货架+退回物品的数量未达上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>进入玩家商店，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点击上架物品选项，执行 /trigger glbs_inputter_1 set 1 来上架物品</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>售货架+退回物品的数量</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>达到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上限
+主手拿物品</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入玩家商店，点击上架物品选项：
+1. 执行 /trigger glbs_inputter_1 set 1 来上架物品
+2. 取回一个自己正在出售的物品，或者取回一个退回的物品，然后重复步骤 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>售货架+退回物品的数量未达上限
+主手拿</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>货币</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据同步-出售商店/回收商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据同步-从出售商店中去除物品/从回收商店中去除物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 玩家左键物品A
+2. 管理员移除物品A
+3. 玩家左键物品A
+4. 玩家左键物品B
+5. 管理员移除物品B
+6. 玩家转动视角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 管理员甲左键物品A
+2. 管理员乙添加一个物品
+3. 管理员甲左键物品A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 提示即将删除
+2. -
+3. 删除成功，菜单刷新，且可以看到管理员乙新增的物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特别注意：需要测试附魔书的附魔能不能显示（附魔书用 StoredEnchantments 而不是 Enchantments 存储，如果是附魔书，物品信息框只解析 StoredEnchantments）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. /trigger glbs_inputter_1 set 0
+2. /trigger glbs_inputter_1 set 51
+3. /trigger glbs_inputter_1 set -51
+4. /trigger glbs_inputter_1 set -50
+5. /trigger glbs_inputter_1 set 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 无反应，也不可再触发（重新点击对应选项可再次触发）
+2. 失败，提示范围溢出
+3. 失败，提示范围溢出
+4. 成功，物品信息框实时变化
+5. 成功，物品信息框实时变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请分别对调整物品信息框上下位置、左右位置、前后位置和大小进行本项测试
+测试时，可以连续输入，即如果连续修改同个项，不需要总是点击，会一直有触发器权限（除非输入 0）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1369,6 +1460,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1686,10 +1786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1801,7 +1901,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -1847,7 +1947,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1890,7 +1990,7 @@
         <v>33</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2007,7 +2107,7 @@
         <v>19</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>29</v>
@@ -2033,7 +2133,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2047,13 +2147,13 @@
         <v>19</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2067,275 +2167,278 @@
         <v>8</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="342" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="342" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>64</v>
+        <v>247</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>37</v>
+        <v>248</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>65</v>
+        <v>246</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>66</v>
+        <v>251</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>37</v>
+        <v>240</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>67</v>
+        <v>245</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>67</v>
+        <v>245</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>44</v>
+        <v>242</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>67</v>
+        <v>245</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>67</v>
+        <v>245</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>127</v>
+        <v>244</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>68</v>
+        <v>249</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
@@ -2343,16 +2446,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
@@ -2360,19 +2463,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F34" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
@@ -2380,19 +2483,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>56</v>
+        <v>239</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
@@ -2400,19 +2503,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -2420,16 +2523,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -2437,19 +2540,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
@@ -2457,16 +2560,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
@@ -2474,19 +2577,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
@@ -2494,19 +2597,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -2514,22 +2617,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="114" x14ac:dyDescent="0.2">
@@ -2537,16 +2640,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -2554,16 +2657,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -2571,19 +2674,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -2591,16 +2694,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -2608,19 +2711,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
@@ -2628,19 +2731,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="114" x14ac:dyDescent="0.2">
@@ -2648,19 +2751,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -2668,16 +2771,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="114" x14ac:dyDescent="0.2">
@@ -2685,22 +2788,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -2708,19 +2811,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -2728,19 +2831,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
@@ -2748,19 +2851,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>56</v>
+        <v>239</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -2768,19 +2871,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>55</v>
+        <v>238</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
@@ -2788,22 +2891,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="57" x14ac:dyDescent="0.2">
@@ -2811,22 +2914,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -2834,22 +2937,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -2857,22 +2960,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E59" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
@@ -2880,22 +2983,22 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -2903,16 +3006,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
@@ -2920,16 +3023,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -2937,19 +3040,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -2957,16 +3060,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
@@ -2974,19 +3077,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -2994,16 +3097,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
@@ -3011,16 +3114,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
@@ -3028,22 +3131,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
@@ -3051,22 +3154,22 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
@@ -3074,19 +3177,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
@@ -3094,19 +3197,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
@@ -3114,16 +3217,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
@@ -3131,45 +3234,45 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -3177,19 +3280,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
@@ -3197,16 +3300,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="114" x14ac:dyDescent="0.2">
@@ -3214,19 +3317,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -3234,13 +3337,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -3248,13 +3351,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -3262,13 +3365,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
@@ -3276,110 +3379,127 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="E82" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="G83" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>250</v>
+        <v>2</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>252</v>
+        <v>235</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/test/test_cases.xlsx
+++ b/test/test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E_game\minecraft\客户端\多版本隔离\.minecraft\versions\1.20.3\saves\GlobalShop_v3\datapacks\GlobalShop_v3\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D32C48-5C74-4B35-8E2B-06A7EBFC4BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE6B574-B944-4B8B-9DC2-9004ABAD7E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="263">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1443,6 +1443,14 @@
   <si>
     <t>请分别对调整物品信息框上下位置、左右位置、前后位置和大小进行本项测试
 测试时，可以连续输入，即如果连续修改同个项，不需要总是点击，会一直有触发器权限（除非输入 0）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在附近生成传送门，传送到另一个维度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.21 新快照加入了骑乘实体也能穿过传送门的特性。在旧版本测试时忽略本条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1786,7 +1794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -2173,81 +2181,84 @@
         <v>226</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="342" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="E21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="342" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>247</v>
+        <v>2</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -2261,13 +2272,13 @@
         <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -2281,13 +2292,13 @@
         <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>240</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -2301,13 +2312,13 @@
         <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -2324,10 +2335,10 @@
         <v>245</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -2344,13 +2355,13 @@
         <v>245</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2358,16 +2369,16 @@
         <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>245</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="57" x14ac:dyDescent="0.2">
@@ -2378,33 +2389,36 @@
         <v>43</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>249</v>
+      </c>
       <c r="E30" s="2" t="s">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -2415,30 +2429,30 @@
         <v>44</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
@@ -2452,7 +2466,7 @@
         <v>17</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>50</v>
@@ -2468,14 +2482,11 @@
       <c r="C34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
@@ -2486,39 +2497,39 @@
         <v>49</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -2526,73 +2537,73 @@
         <v>105</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D39" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="E39" s="2" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -2603,16 +2614,16 @@
         <v>72</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -2620,56 +2631,59 @@
         <v>108</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -2677,36 +2691,36 @@
         <v>110</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -2714,59 +2728,56 @@
         <v>111</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -2774,59 +2785,59 @@
         <v>94</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -2837,36 +2848,36 @@
         <v>72</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -2874,65 +2885,62 @@
         <v>197</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>121</v>
+        <v>238</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -2940,19 +2948,19 @@
         <v>118</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -2966,93 +2974,96 @@
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -3060,136 +3071,136 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>161</v>
+        <v>2</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
@@ -3197,7 +3208,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>72</v>
@@ -3206,144 +3217,150 @@
         <v>168</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="D72" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="E72" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>258</v>
+        <v>181</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>259</v>
+        <v>182</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>187</v>
+        <v>258</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>212</v>
+      <c r="D78" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -3351,7 +3368,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>17</v>
@@ -3365,7 +3382,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>17</v>
@@ -3374,131 +3391,145 @@
         <v>212</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="G81" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="E83" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="G84" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E88" s="2" t="s">
         <v>234</v>
       </c>
     </row>
